--- a/Summarized Trials.xlsx
+++ b/Summarized Trials.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e54ee0e16b764741/University/Fa2023/ECE 718 - Compiler Design for High Performance/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\University\Fa2023\ECE 718 - Compiler Design for High Performance\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{3B6F660A-3873-4DAD-89B5-9368CB731CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B3786E-5AEC-4399-9C3D-F1DD6520219C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF54265-9F5D-4C4A-9DC1-EAC7A07E9535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Trials" sheetId="1" r:id="rId1"/>
     <sheet name="Context and Graphs" sheetId="2" r:id="rId2"/>
+    <sheet name="Trial 24 profiling" sheetId="3" r:id="rId3"/>
+    <sheet name="Trial 25 profiling" sheetId="4" r:id="rId4"/>
+    <sheet name="Trial 26 profiling" sheetId="6" r:id="rId5"/>
+    <sheet name="Trial 27 profiling" sheetId="5" r:id="rId6"/>
+    <sheet name="Trial 28 profiling" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="179">
   <si>
     <t>Trial Name</t>
   </si>
@@ -139,6 +144,438 @@
   </si>
   <si>
     <t>CUDA Vec vs Naïve</t>
+  </si>
+  <si>
+    <t>==8220== Profiling application: python Gemm_CUDA.py 4096 4096 4096</t>
+  </si>
+  <si>
+    <t>==8220== Warning: 5 API trace records have same start and end timestamps.</t>
+  </si>
+  <si>
+    <t>This can happen because of short execution duration of CUDA APIs and low timer resolution on the underlying operating system.</t>
+  </si>
+  <si>
+    <t>==8220== Profiling result:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Type  Time(%)      Time     Calls       Avg       Min       Max  Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPU activities:   99.49%  135.609s        10  13.5609s  13.5393s  13.5689s  _ZN6cudapy11CUDAKernels20cuda_gemm_smc_kernelB2v1B94cw51cXTLSUwv1sCUt9Uw01Ew1NRRQPKzLTg4gaGKFsG2oMQGEYakJSQB1PQBk0Bynm21OiwU1a0UoLGhDpQE8oxrNQE_3dE5ArrayIfLi2E1C7mutable7alignedE5ArrayIfLi2E1C7mutable7alignedE5ArrayIfLi2E1C7mutable7alignedE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.39%  538.14ms        20  26.907ms  12.089ms  296.50ms  [CUDA memcpy HtoD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.11%  153.80ms        10  15.380ms  14.014ms  17.483ms  [CUDA memcpy DtoH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      API calls:   99.73%  135.786s        10  13.5786s  13.5538s  13.5868s  cuMemcpyDtoH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.18%  243.62ms        20  12.181ms  11.442ms  14.096ms  cuMemcpyHtoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.06%  80.481ms         1  80.481ms  80.481ms  80.481ms  cuDevicePrimaryCtxRetain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.01%  18.553ms         1  18.553ms  18.553ms  18.553ms  cuLinkAddData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.01%  9.6204ms        22  437.29us  158.00us  576.50us  cuMemFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.01%  7.1077ms        30  236.92us  200.80us  290.10us  cuMemAlloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.4355ms         1  1.4355ms  1.4355ms  1.4355ms  cuLinkCreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  349.10us         1  349.10us  349.10us  349.10us  cuModuleLoadDataEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  290.60us        10  29.060us  25.000us  46.600us  cuLaunchKernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  131.00us         1  131.00us  131.00us  131.00us  cuLinkComplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  76.100us       429     177ns       0ns  7.8000us  cuGetProcAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  32.200us        71     453ns     100ns  3.7000us  cuCtxGetCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  13.900us        69     201ns       0ns     600ns  cuCtxGetDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  9.4000us         1  9.4000us  9.4000us  9.4000us  cuMemGetInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  4.1000us        17     241ns     100ns     700ns  cuDeviceGetAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.8000us         1  3.8000us  3.8000us  3.8000us  cuModuleGetFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.2000us         1  3.2000us  3.2000us  3.2000us  cuLinkDestroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  2.9000us         3     966ns     100ns  2.2000us  cuDeviceGetCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  2.6000us         1  2.6000us  2.6000us  2.6000us  cuInit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.7000us         2     850ns     200ns  1.5000us  cuDeviceGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.5000us         2     750ns     700ns     800ns  cuDeviceGetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.0000us         1  1.0000us  1.0000us  1.0000us  cuCtxPushCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%     800ns         5     160ns       0ns     400ns  cuFuncGetAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%     300ns         1     300ns     300ns     300ns  cuDeviceGetUuid</t>
+  </si>
+  <si>
+    <t>==10308== Profiling application: python Gemm_CUDA.py 4096 4096 4096</t>
+  </si>
+  <si>
+    <t>==10308== Warning: 3 API trace records have same start and end timestamps.</t>
+  </si>
+  <si>
+    <t>==10308== Profiling result:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPU activities:   85.19%  3.98868s        10  398.87ms  390.24ms  463.07ms  _ZN6cudapy11CUDAKernels20cuda_gemm_smc_kernelB2v1B94cw51cXTLSUwv1sCUt9Uw01Ew1NRRQPKzLTg4gaGKFsG2oMQGEYakJSQB1PQBk0Bynm21OiwU1a0UoLGhDpQE8oxrNQE_3dE5ArrayIfLi2E1C7mutable7alignedE5ArrayIfLi2E1C7mutable7alignedE5ArrayIfLi2E1C7mutable7alignedE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   11.61%  543.64ms        20  27.182ms  11.837ms  303.12ms  [CUDA memcpy HtoD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    3.19%  149.53ms        10  14.953ms  14.313ms  16.496ms  [CUDA memcpy DtoH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      API calls:   91.69%  4.16104s        10  416.10ms  407.36ms  477.95ms  cuMemcpyDtoH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    5.37%  243.60ms        20  12.180ms  11.572ms  13.194ms  cuMemcpyHtoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    2.00%  90.672ms         1  90.672ms  90.672ms  90.672ms  cuDevicePrimaryCtxRetain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.50%  22.613ms         1  22.613ms  22.613ms  22.613ms  cuLinkAddData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.24%  10.735ms        22  487.95us  179.40us  652.80us  cuMemFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.15%  7.0251ms        30  234.17us  190.90us  282.30us  cuMemAlloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.03%  1.3955ms         1  1.3955ms  1.3955ms  1.3955ms  cuLinkCreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.01%  348.40us         1  348.40us  348.40us  348.40us  cuModuleLoadDataEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.01%  287.10us        10  28.710us  24.100us  45.000us  cuLaunchKernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  118.20us         1  118.20us  118.20us  118.20us  cuLinkComplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  100.70us       429     234ns       0ns  23.500us  cuGetProcAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  42.100us        71     592ns     100ns  11.100us  cuCtxGetCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  13.800us        69     200ns       0ns     400ns  cuCtxGetDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  10.000us         1  10.000us  10.000us  10.000us  cuMemGetInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.7000us         1  3.7000us  3.7000us  3.7000us  cuModuleGetFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.6000us         1  3.6000us  3.6000us  3.6000us  cuLinkDestroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  2.9000us         3     966ns     200ns  2.2000us  cuDeviceGetCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  2.2000us         1  2.2000us  2.2000us  2.2000us  cuInit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.6000us         2     800ns     200ns  1.4000us  cuDeviceGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.3000us         2     650ns     600ns     700ns  cuDeviceGetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%     900ns         5     180ns     100ns     400ns  cuFuncGetAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%     600ns         1     600ns     600ns     600ns  cuCtxPushCurrent</t>
+  </si>
+  <si>
+    <t>==3620== Profiling application: python Gemm_CUDA.py 4096 4096 4096</t>
+  </si>
+  <si>
+    <t>==3620== Warning: 8 API trace records have same start and end timestamps.</t>
+  </si>
+  <si>
+    <t>==3620== Profiling result:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPU activities:   98.34%  40.7658s        10  4.07658s  4.06905s  4.12712s  _ZN6cudapy11CUDAKernels20cuda_gemm_smc_kernelB2v1B94cw51cXTLSUwv1sCUt9Uw01Ew1NRRQPKzLTg4gaGKFsG2oMQGEYakJSQB1PQBk0Bynm21OiwU1a0UoLGhDpQE8oxrNQE_3dE5ArrayIfLi2E1C7mutable7alignedE5ArrayIfLi2E1C7mutable7alignedE5ArrayIfLi2E1C7mutable7alignedE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    1.29%  534.49ms        20  26.725ms  11.993ms  292.09ms  [CUDA memcpy HtoD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.37%  152.73ms        10  15.273ms  14.607ms  16.276ms  [CUDA memcpy DtoH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      API calls:   99.15%  40.9404s        10  4.09404s  4.08660s  4.14326s  cuMemcpyDtoH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.59%  245.48ms        20  12.274ms  11.413ms  15.285ms  cuMemcpyHtoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.19%  78.109ms         1  78.109ms  78.109ms  78.109ms  cuDevicePrimaryCtxRetain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.02%  9.4683ms         1  9.4683ms  9.4683ms  9.4683ms  cuLinkAddData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.02%  8.8710ms        22  403.23us  72.400us  570.10us  cuMemFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.02%  8.6895ms        30  289.65us  209.60us  1.5411ms  cuMemAlloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.3973ms         1  1.3973ms  1.3973ms  1.3973ms  cuLinkCreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  350.20us         1  350.20us  350.20us  350.20us  cuModuleLoadDataEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  286.00us        10  28.600us  24.400us  43.300us  cuLaunchKernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  137.80us         1  137.80us  137.80us  137.80us  cuLinkComplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  81.300us       429     189ns       0ns  8.3000us  cuGetProcAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  34.500us        71     485ns       0ns  3.1000us  cuCtxGetCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  13.000us        69     188ns       0ns     400ns  cuCtxGetDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  12.800us         1  12.800us  12.800us  12.800us  cuMemGetInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.7000us        17     217ns       0ns     800ns  cuDeviceGetAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.6000us         1  3.6000us  3.6000us  3.6000us  cuModuleGetFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.3000us         1  3.3000us  3.3000us  3.3000us  cuLinkDestroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.0000us         3  1.0000us     100ns  2.5000us  cuDeviceGetCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  2.4000us         1  2.4000us  2.4000us  2.4000us  cuInit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.8000us         2     900ns     700ns  1.1000us  cuDeviceGetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.2000us         2     600ns     100ns  1.1000us  cuDeviceGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.2000us         1  1.2000us  1.2000us  1.2000us  cuCtxPushCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.0000us         5     200ns     100ns     400ns  cuFuncGetAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%     200ns         1     200ns     200ns     200ns  cuDeviceGetUuid</t>
+  </si>
+  <si>
+    <t>==7236== Profiling application: python Gemm_CUDA.py 4096 4096 4096</t>
+  </si>
+  <si>
+    <t>==7236== Warning: 4 API trace records have same start and end timestamps.</t>
+  </si>
+  <si>
+    <t>==7236== Profiling result:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPU activities:   91.76%  6.90146s        10  690.15ms  682.50ms  736.31ms  _ZN6cudapy11CUDAKernels16cuda_gemm_kernelB2v1B94cw51cXTLSUwv1sCUt9Uw01Ew1NRRQPKzLTg4gaGKFsG2oMQGEYakJSQB1PQBk0Bynm21OiwU1a0UoLGhDpQE8oxrNQE_3dE5ArrayIfLi2E1C7mutable7alignedE5ArrayIfLi2E1C7mutable7alignedE5ArrayIfLi2E1C7mutable7alignedE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    6.17%  464.22ms        20  23.211ms  11.909ms  196.77ms  [CUDA memcpy HtoD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    2.07%  155.33ms        10  15.533ms  14.318ms  17.855ms  [CUDA memcpy DtoH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      API calls:   94.87%  7.08079s        10  708.08ms  701.97ms  752.19ms  cuMemcpyDtoH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    3.35%  249.97ms        20  12.498ms  11.697ms  14.057ms  cuMemcpyHtoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    1.22%  91.005ms         1  91.005ms  91.005ms  91.005ms  cuDevicePrimaryCtxRetain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.40%  29.503ms        30  983.43us  190.60us  14.430ms  cuMemAlloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.14%  10.781ms        22  490.06us  192.00us  636.40us  cuMemFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.01%  818.50us         1  818.50us  818.50us  818.50us  cuLinkCreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  337.20us         1  337.20us  337.20us  337.20us  cuModuleLoadDataEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  290.50us        10  29.050us  23.900us  43.000us  cuLaunchKernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  275.20us         1  275.20us  275.20us  275.20us  cuLinkAddData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  120.60us         1  120.60us  120.60us  120.60us  cuLinkComplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  75.900us       429     176ns       0ns  7.9000us  cuGetProcAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  35.800us        71     504ns     100ns  3.2000us  cuCtxGetCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  15.200us        69     220ns     100ns     500ns  cuCtxGetDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  9.8000us         1  9.8000us  9.8000us  9.8000us  cuMemGetInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  4.1000us        17     241ns     100ns     600ns  cuDeviceGetAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  4.0000us         3  1.3330us     100ns  3.5000us  cuDeviceGetCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  4.0000us         1  4.0000us  4.0000us  4.0000us  cuModuleGetFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.9000us         1  3.9000us  3.9000us  3.9000us  cuLinkDestroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  2.0000us         1  2.0000us  2.0000us  2.0000us  cuInit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.1000us         2     550ns     100ns  1.0000us  cuDeviceGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.1000us         2     550ns     400ns     700ns  cuDeviceGetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.1000us         5     220ns     100ns     500ns  cuFuncGetAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%     800ns         1     800ns     800ns     800ns  cuCtxPushCurrent</t>
+  </si>
+  <si>
+    <t>==16008== Profiling application: python Gemm_CUDA.py 4096 4096 4096</t>
+  </si>
+  <si>
+    <t>==16008== Warning: 3 API trace records have same start and end timestamps.</t>
+  </si>
+  <si>
+    <t>==16008== Profiling result:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPU activities:   97.20%  20.3375s        10  2.03375s  1.99970s  2.06467s  _ZN6cudapy11CUDAKernels16cuda_gemm_kernelB2v1B94cw51cXTLSUwv1sCUt9Uw01Ew1NRRQPKzLTg4gaGKFsG2oMQGEYakJSQB1PQBk0Bynm21OiwU1a0UoLGhDpQE8oxrNQE_3dE5ArrayIfLi2E1C7mutable7alignedE5ArrayIfLi2E1C7mutable7alignedE5ArrayIfLi2E1C7mutable7alignedE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    2.09%  437.18ms        20  21.859ms  11.907ms  198.99ms  [CUDA memcpy HtoD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.71%  149.29ms        10  14.929ms  13.483ms  16.338ms  [CUDA memcpy DtoH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      API calls:   98.21%  20.5088s        10  2.05088s  2.01831s  2.07987s  cuMemcpyDtoH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    1.16%  241.58ms        20  12.079ms  11.455ms  12.566ms  cuMemcpyHtoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.54%  112.51ms         1  112.51ms  112.51ms  112.51ms  cuDevicePrimaryCtxRetain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.05%  9.7468ms        22  443.04us  163.60us  658.10us  cuMemFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.03%  7.0220ms        30  234.07us  154.30us  322.40us  cuMemAlloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  918.80us         1  918.80us  918.80us  918.80us  cuLinkCreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  347.60us         1  347.60us  347.60us  347.60us  cuModuleLoadDataEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  318.40us         1  318.40us  318.40us  318.40us  cuLinkAddData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  273.40us        10  27.340us  24.400us  42.000us  cuLaunchKernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  125.10us         1  125.10us  125.10us  125.10us  cuLinkComplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  77.900us       429     181ns     100ns  8.4000us  cuGetProcAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  41.300us        71     581ns     100ns  8.9000us  cuCtxGetCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  12.600us        69     182ns       0ns     300ns  cuCtxGetDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  9.6000us         1  9.6000us  9.6000us  9.6000us  cuMemGetInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.9000us        17     229ns     100ns     800ns  cuDeviceGetAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  3.0000us         3  1.0000us     200ns  2.4000us  cuDeviceGetCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  2.3000us         1  2.3000us  2.3000us  2.3000us  cuInit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.4000us         2     700ns     200ns  1.2000us  cuDeviceGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    0.00%  1.4000us         2     700ns     600ns     800ns  cuDeviceGetName</t>
   </si>
 </sst>
 </file>
@@ -214,7 +651,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2810,6 +3247,251 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>388239</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645B54C5-9F51-06D4-D294-16BE2E7853AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="1732358"/>
+          <a:ext cx="11256264" cy="6331649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>207263</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C313F3D9-F004-7A8B-E54B-F14618000176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934074" y="1381719"/>
+          <a:ext cx="11951589" cy="6722769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>454913</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6CF8A9-E274-4497-ACAA-F66FEAACCB9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="1341239"/>
+          <a:ext cx="10770488" cy="6058399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>213784</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>162985</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C312D5-C425-4116-8EC4-BC9F2CAC23AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6309784" y="1285875"/>
+          <a:ext cx="10922001" cy="6143625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>256118</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screen shot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F07AA0-6F79-486E-ECDF-B744C474D75F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="1382314"/>
+          <a:ext cx="11495618" cy="6466286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3097,8 +3779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,7 +4127,7 @@
         <v>7.6036844253540039</v>
       </c>
       <c r="G13">
-        <v>4.7253768444061279</v>
+        <v>4.7253768444061297</v>
       </c>
       <c r="H13">
         <v>7.5108833312988281</v>
@@ -3746,7 +4428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC22C78A-4AFB-42A7-860C-985947D40450}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -4081,4 +4763,884 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E792B270-628C-4C5A-98ED-E54E52F50D15}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9FEAAE-796E-4BB7-93D4-9B8A8872AF3E}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B6343C-3FF5-42EB-B10B-FD4A16692DF7}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFB017B-43D6-47D7-9217-AA6ACC8F4FD6}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82141C89-A3E5-4070-B989-19AC98B4C496}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Summarized Trials.xlsx
+++ b/Summarized Trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e54ee0e16b764741/University/Fa2023/ECE 718 - Compiler Design for High Performance/Project/GemmCUDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="526" documentId="13_ncr:1_{3C733FE7-E8A4-42C6-AC06-D019A0768725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F1F7CEC-6BA5-46A6-A282-40DD598BC6E9}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="13_ncr:1_{3C733FE7-E8A4-42C6-AC06-D019A0768725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B52203-E574-4916-A107-CF35669F45D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Trials" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="419">
   <si>
     <t>Trial Name</t>
   </si>
@@ -1315,6 +1315,21 @@
   </si>
   <si>
     <t>Threads Per Block</t>
+  </si>
+  <si>
+    <t>Loop Reordering JIT</t>
+  </si>
+  <si>
+    <t>Naïve</t>
+  </si>
+  <si>
+    <t>Naïve JIT</t>
+  </si>
+  <si>
+    <t>Naïve CUDA</t>
+  </si>
+  <si>
+    <t>CUDA Vectorization</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +2000,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive Time</c:v>
+                  <c:v>Naïve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2090,7 +2105,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive Time Numba</c:v>
+                  <c:v>Naïve JIT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2195,7 +2210,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ikj Time Numba</c:v>
+                  <c:v>Loop Reordering JIT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2300,7 +2315,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUDA Time naive</c:v>
+                  <c:v>Naïve CUDA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2428,6 +2443,79 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Square</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2491,6 +2579,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2630,6 +2778,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CUDA Shared Memory Caching</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3072,6 +3245,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CUDA T Shared Memory Caching</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3588,7 +3786,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUDA Time naive</c:v>
+                  <c:v>Naïve CUDA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3693,7 +3891,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUDA Time Global Memory Coalescing</c:v>
+                  <c:v>CUDA Global Memory Coalescing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3798,7 +3996,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUDA Time Shared Memory Caching</c:v>
+                  <c:v>CUDA Shared Memory Caching</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3903,7 +4101,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUDA Time Vectorized</c:v>
+                  <c:v>CUDA Vectorization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4037,6 +4235,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Square Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
@@ -4101,6 +4354,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
@@ -4757,6 +5065,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4819,6 +5182,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Relative Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6719,6 +7137,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CUDA Global Memory Coalescing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7053,7 +7496,35 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7148,6 +7619,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CUDA Vectorized</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7482,7 +7978,35 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7577,6 +8101,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CUDA naive</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7911,7 +8460,35 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -15648,8 +16225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC22C78A-4AFB-42A7-860C-985947D40450}">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q58" workbookViewId="0">
-      <selection activeCell="AC79" sqref="AC79"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15657,7 +16234,7 @@
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -15682,25 +16259,25 @@
         <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>416</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>414</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>417</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>407</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>6</v>
+        <v>408</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>7</v>
+        <v>418</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>32</v>

--- a/Summarized Trials.xlsx
+++ b/Summarized Trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e54ee0e16b764741/University/Fa2023/ECE 718 - Compiler Design for High Performance/Project/GemmCUDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="13_ncr:1_{3C733FE7-E8A4-42C6-AC06-D019A0768725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B52203-E574-4916-A107-CF35669F45D6}"/>
+  <xr:revisionPtr revIDLastSave="610" documentId="13_ncr:1_{3C733FE7-E8A4-42C6-AC06-D019A0768725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{319C647E-9792-4F19-A458-80425D19BCB8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Trials" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="434">
   <si>
     <t>Trial Name</t>
   </si>
@@ -1330,6 +1330,51 @@
   </si>
   <si>
     <t>CUDA Vectorization</t>
+  </si>
+  <si>
+    <t>MKL Time</t>
+  </si>
+  <si>
+    <t>CuBLAS Time</t>
+  </si>
+  <si>
+    <t>Trial 24</t>
+  </si>
+  <si>
+    <t>Trial 25</t>
+  </si>
+  <si>
+    <t>Trial 26</t>
+  </si>
+  <si>
+    <t>Trial 27</t>
+  </si>
+  <si>
+    <t>Trial 28</t>
+  </si>
+  <si>
+    <t>Trial 29</t>
+  </si>
+  <si>
+    <t>Trial 30</t>
+  </si>
+  <si>
+    <t>Trial 31</t>
+  </si>
+  <si>
+    <t>Trial 32</t>
+  </si>
+  <si>
+    <t>Trial 33</t>
+  </si>
+  <si>
+    <t>Trial 34</t>
+  </si>
+  <si>
+    <t>Trial 35</t>
+  </si>
+  <si>
+    <t>Trial 36</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1382,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1407,7 +1452,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1729,6 +1774,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1750,7 +1817,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1762,18 +1828,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1785,13 +1848,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1812,7 +1872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1839,30 +1899,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1874,6 +1923,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1883,16 +1950,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2843,7 +2908,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$AA$21</c:f>
+              <c:f>'Context and Graphs'!$AC$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2878,7 +2943,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Context and Graphs'!$W$22:$X$37</c:f>
+              <c:f>'Context and Graphs'!$Y$22:$Z$37</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -2986,7 +3051,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Context and Graphs'!$AA$22:$AA$37</c:f>
+              <c:f>'Context and Graphs'!$AC$22:$AC$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3310,7 +3375,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$AA$21</c:f>
+              <c:f>'Context and Graphs'!$AC$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3345,7 +3410,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Context and Graphs'!$W$22:$X$37</c:f>
+              <c:f>'Context and Graphs'!$Y$22:$Z$37</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -3453,7 +3518,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Context and Graphs'!$AA$22:$AA$37</c:f>
+              <c:f>'Context and Graphs'!$AC$22:$AC$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3654,6 +3719,1172 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Small Array Execution Time: MKL, CuBLAS,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> CUDA Vectorized Kernel</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Context and Graphs'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MKL Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9919147491455078E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.990961074829102E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9889812469482422E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9862861633300781E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.39617919921875E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6768388748168945E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AB66-4818-AAF9-A2ABCBD36EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Context and Graphs'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CuBLAS Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.15810346603393549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18051719665527341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16954708099365229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17852139472961431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18350934982299799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19248294830322271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AB66-4818-AAF9-A2ABCBD36EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Context and Graphs'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA Vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.9782009124755859E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9811344146728524E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9784393310546875E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.595759391784668E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9868106842041023E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20322537422180181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AB66-4818-AAF9-A2ABCBD36EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="933281600"/>
+        <c:axId val="964389984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="933281600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964389984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="32"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="964389984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933281600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Execution Time: MKL, CuBLAS,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> CUDA Vectorized Kernel</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Context and Graphs'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MKL Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$M$5:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.9862861633300781E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.39617919921875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6768388748168945E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.482025146484375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA8A-4A4D-B76B-A75C9C43DCFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Context and Graphs'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CuBLAS Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$N$5:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.17852139472961431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18350934982299799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19248294830322271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80584812164306641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA8A-4A4D-B76B-A75C9C43DCFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Context and Graphs'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA Vectorization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Context and Graphs'!$H$5:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.595759391784668E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9868106842041023E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20322537422180181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.46019577980042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CA8A-4A4D-B76B-A75C9C43DCFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="933281600"/>
+        <c:axId val="964389984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="933281600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964389984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="256"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="964389984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933281600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5386,7 +6617,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$Y$21</c:f>
+              <c:f>'Context and Graphs'!$AA$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5421,7 +6652,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5442,7 +6673,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$Y$22:$Y$25</c:f>
+              <c:f>'Context and Graphs'!$AA$22:$AA$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5473,7 +6704,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$Z$21</c:f>
+              <c:f>'Context and Graphs'!$AB$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5508,7 +6739,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5529,7 +6760,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
+              <c:f>'Context and Graphs'!$AB$22:$AB$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5560,7 +6791,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$AA$21</c:f>
+              <c:f>'Context and Graphs'!$AC$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5595,7 +6826,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5616,7 +6847,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$AA$22:$AA$25</c:f>
+              <c:f>'Context and Graphs'!$AC$22:$AC$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5647,7 +6878,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$AB$21</c:f>
+              <c:f>'Context and Graphs'!$AD$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5682,7 +6913,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5703,7 +6934,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$AB$22:$AB$25</c:f>
+              <c:f>'Context and Graphs'!$AD$22:$AD$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5973,7 +7204,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$Y$21</c:f>
+              <c:f>'Context and Graphs'!$AA$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6008,7 +7239,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6029,7 +7260,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$Y$26:$Y$29</c:f>
+              <c:f>'Context and Graphs'!$AA$26:$AA$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6060,7 +7291,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$Z$21</c:f>
+              <c:f>'Context and Graphs'!$AB$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6095,7 +7326,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6116,7 +7347,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$Z$26:$Z$29</c:f>
+              <c:f>'Context and Graphs'!$AB$26:$AB$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6147,7 +7378,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$AA$21</c:f>
+              <c:f>'Context and Graphs'!$AC$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6182,7 +7413,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6203,7 +7434,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$AA$26:$AA$29</c:f>
+              <c:f>'Context and Graphs'!$AC$26:$AC$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6234,7 +7465,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$AB$21</c:f>
+              <c:f>'Context and Graphs'!$AD$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6269,7 +7500,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6290,7 +7521,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$AB$26:$AB$29</c:f>
+              <c:f>'Context and Graphs'!$AD$26:$AD$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6560,7 +7791,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$Y$21</c:f>
+              <c:f>'Context and Graphs'!$AA$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6595,7 +7826,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6616,7 +7847,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$Y$26:$Y$29</c:f>
+              <c:f>'Context and Graphs'!$AA$26:$AA$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6647,7 +7878,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$Z$21</c:f>
+              <c:f>'Context and Graphs'!$AB$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6682,7 +7913,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6703,7 +7934,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$Z$26:$Z$29</c:f>
+              <c:f>'Context and Graphs'!$AB$26:$AB$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6734,7 +7965,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$AA$21</c:f>
+              <c:f>'Context and Graphs'!$AC$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6769,7 +8000,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6790,7 +8021,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$AA$26:$AA$29</c:f>
+              <c:f>'Context and Graphs'!$AC$26:$AC$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6821,7 +8052,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$AB$21</c:f>
+              <c:f>'Context and Graphs'!$AD$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6856,7 +8087,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$X$22:$X$25</c:f>
+              <c:f>'Context and Graphs'!$Z$22:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6877,7 +8108,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$AB$26:$AB$29</c:f>
+              <c:f>'Context and Graphs'!$AD$26:$AD$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7202,7 +8433,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$Z$21</c:f>
+              <c:f>'Context and Graphs'!$AB$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7237,7 +8468,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Context and Graphs'!$W$22:$X$37</c:f>
+              <c:f>'Context and Graphs'!$Y$22:$Z$37</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -7345,7 +8576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Context and Graphs'!$Z$22:$Z$37</c:f>
+              <c:f>'Context and Graphs'!$AB$22:$AB$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7684,7 +8915,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$AB$21</c:f>
+              <c:f>'Context and Graphs'!$AD$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7719,7 +8950,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Context and Graphs'!$W$22:$X$37</c:f>
+              <c:f>'Context and Graphs'!$Y$22:$Z$37</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -7827,7 +9058,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Context and Graphs'!$AB$22:$AB$37</c:f>
+              <c:f>'Context and Graphs'!$AD$22:$AD$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8166,7 +9397,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Context and Graphs'!$Y$21</c:f>
+              <c:f>'Context and Graphs'!$AA$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8201,7 +9432,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Context and Graphs'!$W$22:$X$37</c:f>
+              <c:f>'Context and Graphs'!$Y$22:$Z$37</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -8309,7 +9540,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Context and Graphs'!$Y$22:$Y$37</c:f>
+              <c:f>'Context and Graphs'!$AA$22:$AA$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8649,6 +9880,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10534,6 +11845,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14713,7 +17056,7 @@
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>438151</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -14743,13 +17086,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -14779,13 +17122,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>2390775</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -14817,13 +17160,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -14855,13 +17198,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
@@ -14891,13 +17234,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -14929,13 +17272,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -14967,13 +17310,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -15005,13 +17348,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>1133475</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -15036,6 +17379,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{096955AD-E27C-422B-EC39-CE76C1416461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FAC022-0B7C-4582-B9CE-2F4A0ACEABCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15287,6 +17704,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15574,10 +17995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15590,9 +18011,11 @@
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15617,8 +18040,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -15644,7 +18073,7 @@
         <v>7.9782009124755859E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -15670,7 +18099,7 @@
         <v>6.9811344146728524E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -15696,7 +18125,7 @@
         <v>7.9784393310546875E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -15722,7 +18151,7 @@
         <v>1.595759391784668E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -15748,7 +18177,7 @@
         <v>4.9868106842041023E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -15774,7 +18203,7 @@
         <v>0.20322537422180181</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -15800,7 +18229,7 @@
         <v>10.46019577980042</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -15826,7 +18255,7 @@
         <v>13.90225052833557</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -15852,7 +18281,7 @@
         <v>13.905861854553221</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -15878,7 +18307,7 @@
         <v>13.895543098449711</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -15904,7 +18333,7 @@
         <v>13.904776096343991</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -15924,13 +18353,13 @@
         <v>7.6036844253540039</v>
       </c>
       <c r="G13">
-        <v>4.7253768444061297</v>
+        <v>4.7253768444061279</v>
       </c>
       <c r="H13">
         <v>7.5108833312988281</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -15956,7 +18385,7 @@
         <v>7.5578842163085938</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -15982,7 +18411,7 @@
         <v>7.5695807933807373</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -16008,7 +18437,7 @@
         <v>7.6051571369171143</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -16034,7 +18463,7 @@
         <v>10.54792332649231</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -16060,7 +18489,7 @@
         <v>10.497905492782589</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -16086,7 +18515,7 @@
         <v>21.146031141281131</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -16112,7 +18541,7 @@
         <v>10.286246299743651</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -16138,7 +18567,7 @@
         <v>10.29764723777771</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -16164,7 +18593,7 @@
         <v>20.98466849327087</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -16190,7 +18619,7 @@
         <v>20.91546201705933</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -16214,6 +18643,386 @@
       </c>
       <c r="H24">
         <v>20.950277328491211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>421</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>136.45119786262509</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>422</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4.844620943069458</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>423</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>41.60684609413147</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>424</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>7.6887826919555664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>21.110632181167599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>426</v>
+      </c>
+      <c r="B30">
+        <v>88.655176877975464</v>
+      </c>
+      <c r="C30">
+        <v>0.721221923828125</v>
+      </c>
+      <c r="D30">
+        <v>0.17253947257995611</v>
+      </c>
+      <c r="E30">
+        <v>0.28688287734985352</v>
+      </c>
+      <c r="F30">
+        <v>0.1107616424560547</v>
+      </c>
+      <c r="G30">
+        <v>0.17943477630615229</v>
+      </c>
+      <c r="H30">
+        <v>1.595711708068848E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>427</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>2.9919147491455078E-3</v>
+      </c>
+      <c r="J31">
+        <v>0.15810346603393549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>2.990961074829102E-3</v>
+      </c>
+      <c r="J32">
+        <v>0.18051719665527341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>429</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>3.9889812469482422E-3</v>
+      </c>
+      <c r="J33">
+        <v>0.16954708099365229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>4.9862861633300781E-3</v>
+      </c>
+      <c r="J34">
+        <v>0.17852139472961431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1.39617919921875E-2</v>
+      </c>
+      <c r="J35">
+        <v>0.18350934982299799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>8.6768388748168945E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.19248294830322271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>433</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>4.482025146484375</v>
+      </c>
+      <c r="J37">
+        <v>0.80584812164306641</v>
       </c>
     </row>
   </sheetData>
@@ -16223,10 +19032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC22C78A-4AFB-42A7-860C-985947D40450}">
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16242,20 +19051,21 @@
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="36" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="36" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -16273,7 +19083,7 @@
       <c r="F1" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>408</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -16285,1804 +19095,1852 @@
       <c r="J1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="M1" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q1" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51"/>
-      <c r="X1" s="1" t="s">
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="67"/>
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>32</v>
       </c>
       <c r="B2" s="7">
         <v>0.18351006507873541</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>0.3670196533203125</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
         <v>0.13962650299072271</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2">
         <v>0.27828621864318848</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2">
         <v>0.1037919521331787</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2">
         <v>0.16854977607727051</v>
       </c>
       <c r="H2" s="7">
         <v>7.9782009124755859E-3</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <f>B2/E2</f>
         <v>0.65942922352912969</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <f>B2/H2</f>
         <v>23.001434420105795</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <f>B2/F2</f>
         <v>1.7680567838561116</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <f>B2/G2</f>
         <v>1.0887588779388615</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="M2" s="56">
+        <v>2.9919147491455078E-3</v>
+      </c>
+      <c r="N2" s="59">
+        <v>0.15810346603393549</v>
+      </c>
+      <c r="Q2" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="58"/>
-      <c r="W2" t="s">
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="Y2" t="s">
         <v>15</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>14.3907253742218</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>13.88457727432251</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>16.58563923835754</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>13.90225052833557</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>64</v>
       </c>
       <c r="B3" s="7">
         <v>1.27190637588501</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>0.36806845664978027</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>0.1385462284088135</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>0.27078390121459961</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3">
         <v>9.7769021987915039E-2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3">
         <v>0.16512465476989749</v>
       </c>
       <c r="H3" s="7">
         <v>6.9811344146728524E-3</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <f t="shared" ref="I3:I8" si="0">B3/E3</f>
         <v>4.6971270085846362</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <f t="shared" ref="J3:J8" si="1">B3/H3</f>
         <v>182.19193333561014</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <f t="shared" ref="K3:K8" si="2">B3/F3</f>
         <v>13.009298344441113</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <f t="shared" ref="L3:L8" si="3">B3/G3</f>
         <v>7.7027042246200095</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="M3" s="7">
+        <v>2.990961074829102E-3</v>
+      </c>
+      <c r="N3" s="60">
+        <v>0.18051719665527341</v>
+      </c>
+      <c r="P3" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="O3" s="53">
+      <c r="Q3" s="45">
         <v>32</v>
       </c>
-      <c r="P3" s="54">
+      <c r="R3" s="46">
         <v>64</v>
       </c>
-      <c r="Q3" s="54">
+      <c r="S3" s="46">
         <v>128</v>
       </c>
-      <c r="R3" s="54">
+      <c r="T3" s="46">
         <v>256</v>
       </c>
-      <c r="S3" s="54">
+      <c r="U3" s="46">
         <v>512</v>
       </c>
-      <c r="T3" s="54">
+      <c r="V3" s="46">
         <v>1024</v>
       </c>
-      <c r="U3" s="55">
+      <c r="W3" s="47">
         <v>4096</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>16</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>14.10806488990784</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>13.98515152931213</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>30.990152835845951</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>13.905861854553221</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>128</v>
       </c>
       <c r="B4" s="7">
         <v>10.34896802902222</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>0.39191865921020508</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <v>0.16159248352050781</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>0.28726029396057129</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4">
         <v>9.9733114242553711E-2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4">
         <v>0.16655516624450681</v>
       </c>
       <c r="H4" s="7">
         <v>7.9784393310546875E-3</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <f t="shared" si="0"/>
         <v>36.026447951914641</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <f t="shared" si="1"/>
         <v>1297.116841979441</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f t="shared" si="2"/>
         <v>103.7666186162927</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <f t="shared" si="3"/>
         <v>62.135376898664902</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="M4" s="7">
+        <v>3.9889812469482422E-3</v>
+      </c>
+      <c r="N4" s="60">
+        <v>0.16954708099365229</v>
+      </c>
+      <c r="P4" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="O4" s="59">
+      <c r="Q4" s="48">
         <v>0.65942922352912969</v>
       </c>
-      <c r="P4" s="60">
+      <c r="R4" s="49">
         <v>4.6971270085846362</v>
       </c>
-      <c r="Q4" s="60">
+      <c r="S4" s="49">
         <v>36.026447951914641</v>
       </c>
-      <c r="R4" s="60">
+      <c r="T4" s="49">
         <v>292.18407069256534</v>
       </c>
-      <c r="S4" s="60">
+      <c r="U4" s="49">
         <v>2020.5602365341686</v>
       </c>
-      <c r="T4" s="60">
+      <c r="V4" s="49">
         <v>4913.6869072018962</v>
       </c>
-      <c r="U4" s="15">
+      <c r="W4" s="14">
         <v>7059.5759713484658</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>17</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>14.1343719959259</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>14.00995993614197</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>63.324776411056519</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>13.895543098449711</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>256</v>
       </c>
       <c r="B5" s="7">
         <v>81.884746313095093</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>0.5326075553894043</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>0.15954279899597171</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>0.28025054931640619</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5">
         <v>0.1057174205780029</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5">
         <v>0.18051719665527341</v>
       </c>
       <c r="H5" s="7">
         <v>1.595759391784668E-2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
         <v>292.18407069256534</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <f t="shared" si="1"/>
         <v>5131.3967967010803</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <f t="shared" si="2"/>
         <v>774.56246913134783</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <f t="shared" si="3"/>
         <v>453.61188756696225</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="M5" s="7">
+        <v>4.9862861633300781E-3</v>
+      </c>
+      <c r="N5" s="60">
+        <v>0.17852139472961431</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="O5" s="61">
+      <c r="Q5" s="50">
         <v>1.7680567838561116</v>
       </c>
-      <c r="P5" s="62">
+      <c r="R5" s="51">
         <v>13.009298344441113</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="S5" s="51">
         <v>103.7666186162927</v>
       </c>
-      <c r="R5" s="62">
+      <c r="T5" s="51">
         <v>774.56246913134783</v>
       </c>
-      <c r="S5" s="62">
+      <c r="U5" s="51">
         <v>4552.8687922157378</v>
       </c>
-      <c r="T5" s="62">
+      <c r="V5" s="51">
         <v>17401.275495098595</v>
       </c>
-      <c r="U5" s="15">
+      <c r="W5" s="14">
         <v>7536.2075467550321</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>18</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>14.10972428321838</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>13.98259258270264</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>137.5324246883392</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>13.904776096343991</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>512</v>
       </c>
       <c r="B6" s="7">
         <v>658.41065311431885</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>2.4474935531616211</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>0.35804367065429688</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>0.32585549354553223</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6">
         <v>0.14461445808410639</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6">
         <v>0.21143388748168951</v>
       </c>
       <c r="H6" s="7">
         <v>4.9868106842041023E-2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
         <v>2020.5602365341686</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <f t="shared" si="1"/>
         <v>13203.040877406029</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <f t="shared" si="2"/>
         <v>4552.8687922157378</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <f t="shared" si="3"/>
         <v>3114.0261429064353</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="M6" s="7">
+        <v>1.39617919921875E-2</v>
+      </c>
+      <c r="N6" s="60">
+        <v>0.18350934982299799</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="O6" s="61">
+      <c r="Q6" s="50">
         <v>1.0887588779388615</v>
       </c>
-      <c r="P6" s="62">
+      <c r="R6" s="51">
         <v>7.7027042246200095</v>
       </c>
-      <c r="Q6" s="62">
+      <c r="S6" s="51">
         <v>62.135376898664902</v>
       </c>
-      <c r="R6" s="62">
+      <c r="T6" s="51">
         <v>453.61188756696225</v>
       </c>
-      <c r="S6" s="62">
+      <c r="U6" s="51">
         <v>3114.0261429064353</v>
       </c>
-      <c r="T6" s="62">
+      <c r="V6" s="51">
         <v>14070.88570815296</v>
       </c>
-      <c r="U6" s="63">
+      <c r="W6" s="52">
         <v>6981.7071005182797</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>19</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>7.791940450668335</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>7.6036844253540039</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>4.7253768444061297</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>7.5108833312988281</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>1024</v>
       </c>
       <c r="B7" s="7">
         <v>5501.495353937149</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>16.37320613861084</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>1.764312267303467</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>1.1196267604827881</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7">
         <v>0.31615471839904791</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7">
         <v>0.39098429679870611</v>
       </c>
       <c r="H7" s="7">
         <v>0.20322537422180181</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <f t="shared" si="0"/>
         <v>4913.6869072018962</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <f t="shared" si="1"/>
         <v>27070.907729921426</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <f t="shared" si="2"/>
         <v>17401.275495098595</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <f t="shared" si="3"/>
         <v>14070.88570815296</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="M7" s="7">
+        <v>8.6768388748168945E-2</v>
+      </c>
+      <c r="N7" s="60">
+        <v>0.19248294830322271</v>
+      </c>
+      <c r="P7" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="O7" s="64">
+      <c r="Q7" s="53">
         <v>23.001434420105795</v>
       </c>
-      <c r="P7" s="65">
+      <c r="R7" s="54">
         <v>182.19193333561</v>
       </c>
-      <c r="Q7" s="65">
+      <c r="S7" s="54">
         <v>1297.116841979441</v>
       </c>
-      <c r="R7" s="65">
+      <c r="T7" s="54">
         <v>5131.3967967010803</v>
       </c>
-      <c r="S7" s="65">
+      <c r="U7" s="54">
         <v>13203.040877406029</v>
       </c>
-      <c r="T7" s="65">
+      <c r="V7" s="54">
         <v>27070.907729921426</v>
       </c>
-      <c r="U7" s="66">
+      <c r="W7" s="55">
         <v>7571.5600039668789</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>20</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>7.7961337566375732</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>7.6086442470550537</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>8.8034775257110596</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>7.5578842163085938</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>4096</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>79200</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>4724.1884799003601</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>163.39830279350281</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>11.21880412101746</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>10.509264707565309</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>11.34393048286438</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>10.46019577980042</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <f t="shared" si="0"/>
         <v>7059.5759713484658</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <f t="shared" si="1"/>
         <v>7571.5600039668789</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <f t="shared" si="2"/>
         <v>7536.2075467550321</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <f t="shared" si="3"/>
         <v>6981.7071005182797</v>
       </c>
-      <c r="W8" t="s">
+      <c r="M8" s="15">
+        <v>4.482025146484375</v>
+      </c>
+      <c r="N8" s="61">
+        <v>0.80584812164306641</v>
+      </c>
+      <c r="Y8" t="s">
         <v>21</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>7.7481474876403809</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>7.6283092498779297</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>18.128262519836429</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>7.5695807933807373</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="W9" s="22" t="s">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="X9" s="22">
+      <c r="Z9" s="20">
         <v>7.8307175636291504</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="AA9" s="20">
         <v>7.6611173152923584</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="AB9" s="20">
         <v>41.8465895652771</v>
       </c>
-      <c r="AA9" s="22">
+      <c r="AC9" s="20">
         <v>7.6051571369171143</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="W10" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="Y10" t="s">
         <v>23</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>10.753920316696171</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>10.646120071411129</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>11.42532658576965</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>10.54792332649231</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="W11" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
         <v>24</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>10.74261164665222</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>10.65383958816528</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>28.15839242935181</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>10.497905492782589</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="W12" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
         <v>25</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>21.34992527961731</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>21.140375852584839</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>21.502101182937619</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>21.146031141281131</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="W13" t="s">
+      <c r="Y13" t="s">
         <v>26</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>10.46670031547546</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>10.3735408782959</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>0</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>10.286246299743651</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="W14" t="s">
+      <c r="Y14" t="s">
         <v>27</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>10.47215461730957</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>10.36481404304504</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>0</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>10.29764723777771</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="W15" t="s">
+      <c r="Y15" t="s">
         <v>28</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>21.092999219894409</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>20.84064340591431</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>0</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>20.98466849327087</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="W16" t="s">
+      <c r="Y16" t="s">
         <v>29</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>21.259836673736569</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>20.848693370819088</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>0</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>20.91546201705933</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="W17" t="s">
+      <c r="Y17" t="s">
         <v>30</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>21.23253870010376</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>20.911485195159909</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>0</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>20.950277328491211</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W21" s="24" t="s">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y21" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="X21" s="24" t="s">
+      <c r="Z21" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="Y21" s="45" t="s">
+      <c r="AA21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="45" t="s">
+      <c r="AB21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AA21" s="45" t="s">
+      <c r="AC21" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AB21" s="45" t="s">
+      <c r="AD21" s="42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W22" s="67">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y22" s="21">
         <v>4</v>
       </c>
-      <c r="X22" s="67">
+      <c r="Z22" s="21">
         <v>4</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>14.3907253742218</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>13.88457727432251</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>16.58563923835754</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>13.90225052833557</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W23" s="67">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y23" s="21">
         <v>4</v>
       </c>
-      <c r="X23" s="67">
+      <c r="Z23" s="21">
         <v>8</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>14.10806488990784</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>13.98515152931213</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>30.990152835845951</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>13.905861854553221</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W24" s="67">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y24" s="21">
         <v>4</v>
       </c>
-      <c r="X24" s="67">
+      <c r="Z24" s="21">
         <v>16</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>14.1343719959259</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <v>14.00995993614197</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>63.324776411056519</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>13.895543098449711</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W25" s="67">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y25" s="21">
         <v>4</v>
       </c>
-      <c r="X25" s="67">
+      <c r="Z25" s="21">
         <v>32</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>14.10972428321838</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>13.98259258270264</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>137.5324246883392</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>13.904776096343991</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W26" s="67">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y26" s="21">
         <v>8</v>
       </c>
-      <c r="X26" s="67">
+      <c r="Z26" s="21">
         <v>4</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>7.791940450668335</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>7.6036844253540039</v>
       </c>
-      <c r="AA26">
+      <c r="AC26">
         <v>4.7253768444061297</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>7.5108833312988281</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W27" s="67">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y27" s="21">
         <v>8</v>
       </c>
-      <c r="X27" s="67">
+      <c r="Z27" s="21">
         <v>8</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>7.7961337566375732</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>7.6086442470550537</v>
       </c>
-      <c r="AA27">
+      <c r="AC27">
         <v>8.8034775257110596</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>7.5578842163085938</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W28" s="67">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y28" s="21">
         <v>8</v>
       </c>
-      <c r="X28" s="67">
+      <c r="Z28" s="21">
         <v>16</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>7.7481474876403809</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>7.6283092498779297</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <v>18.128262519836429</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>7.5695807933807373</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W29" s="67">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y29" s="21">
         <v>8</v>
       </c>
-      <c r="X29" s="67">
+      <c r="Z29" s="21">
         <v>32</v>
       </c>
-      <c r="Y29" s="22">
+      <c r="AA29" s="20">
         <v>7.8307175636291504</v>
       </c>
-      <c r="Z29" s="22">
+      <c r="AB29" s="20">
         <v>7.6611173152923584</v>
       </c>
-      <c r="AA29" s="22">
+      <c r="AC29" s="20">
         <v>41.8465895652771</v>
       </c>
-      <c r="AB29" s="22">
+      <c r="AD29" s="20">
         <v>7.6051571369171143</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W30" s="67">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y30" s="21">
         <v>16</v>
       </c>
-      <c r="X30" s="67">
+      <c r="Z30" s="21">
         <v>4</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>10.46670031547546</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <v>10.3735408782959</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>10.286246299743651</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W31" s="67">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y31" s="21">
         <v>16</v>
       </c>
-      <c r="X31" s="67">
+      <c r="Z31" s="21">
         <v>8</v>
       </c>
-      <c r="Y31">
+      <c r="AA31">
         <v>10.47215461730957</v>
       </c>
-      <c r="Z31">
+      <c r="AB31">
         <v>10.36481404304504</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>10.29764723777771</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="W32" s="67">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Y32" s="21">
         <v>16</v>
       </c>
-      <c r="X32" s="67">
+      <c r="Z32" s="21">
         <v>16</v>
       </c>
-      <c r="Y32">
+      <c r="AA32">
         <v>10.753920316696171</v>
       </c>
-      <c r="Z32">
+      <c r="AB32">
         <v>10.646120071411129</v>
       </c>
-      <c r="AA32">
+      <c r="AC32">
         <v>11.42532658576965</v>
       </c>
-      <c r="AB32">
+      <c r="AD32">
         <v>10.54792332649231</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>399</v>
       </c>
-      <c r="W33" s="67">
+      <c r="Y33" s="21">
         <v>16</v>
       </c>
-      <c r="X33" s="67">
+      <c r="Z33" s="21">
         <v>32</v>
       </c>
-      <c r="Y33">
+      <c r="AA33">
         <v>10.74261164665222</v>
       </c>
-      <c r="Z33">
+      <c r="AB33">
         <v>10.65383958816528</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <v>28.15839242935181</v>
       </c>
-      <c r="AB33">
+      <c r="AD33">
         <v>10.497905492782589</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28" t="s">
+    <row r="34" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="W34" s="67">
+      <c r="Y34" s="21">
         <v>32</v>
       </c>
-      <c r="X34" s="67">
+      <c r="Z34" s="21">
         <v>4</v>
       </c>
-      <c r="Y34">
+      <c r="AA34">
         <v>21.092999219894409</v>
       </c>
-      <c r="Z34">
+      <c r="AB34">
         <v>20.84064340591431</v>
       </c>
-      <c r="AA34"/>
-      <c r="AB34">
+      <c r="AC34"/>
+      <c r="AD34">
         <v>20.98466849327087</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
+    <row r="35" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27">
+      <c r="C35" s="23"/>
+      <c r="D35" s="24">
         <v>137.53242468833901</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="32" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="W35" s="67">
+      <c r="Y35" s="21">
         <v>32</v>
       </c>
-      <c r="X35" s="67">
+      <c r="Z35" s="21">
         <v>8</v>
       </c>
-      <c r="Y35">
+      <c r="AA35">
         <v>21.259836673736569</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <v>20.848693370819088</v>
       </c>
-      <c r="AA35"/>
-      <c r="AB35">
+      <c r="AC35"/>
+      <c r="AD35">
         <v>20.91546201705933</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B36" s="33" t="s">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B36" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="31">
         <v>0.99490000000000001</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="21">
         <v>10</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="W36" s="67">
+      <c r="Y36" s="21">
         <v>32</v>
       </c>
-      <c r="X36" s="67">
+      <c r="Z36" s="21">
         <v>16</v>
       </c>
-      <c r="Y36">
+      <c r="AA36">
         <v>21.23253870010376</v>
       </c>
-      <c r="Z36">
+      <c r="AB36">
         <v>20.911485195159909</v>
       </c>
-      <c r="AB36">
+      <c r="AD36">
         <v>20.950277328491211</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="34">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="21">
         <v>20</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="W37" s="67">
+      <c r="Y37" s="21">
         <v>32</v>
       </c>
-      <c r="X37" s="67">
+      <c r="Z37" s="21">
         <v>32</v>
       </c>
-      <c r="Y37">
+      <c r="AA37">
         <v>21.34992527961731</v>
       </c>
-      <c r="Z37">
+      <c r="AB37">
         <v>21.140375852584839</v>
       </c>
-      <c r="AA37">
+      <c r="AC37">
         <v>21.502101182937619</v>
       </c>
-      <c r="AB37">
+      <c r="AD37">
         <v>21.146031141281131</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="34">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B38" s="30"/>
+      <c r="C38" s="31">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="21">
         <v>10</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="33" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B39" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="31">
         <v>0.99729999999999996</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="21">
         <v>10</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="I39" s="33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="34">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31">
         <v>1.8E-3</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="21">
         <v>20</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B41" s="30"/>
+      <c r="C41" s="31">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="21">
         <v>1</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="34">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B42" s="30"/>
+      <c r="C42" s="31">
         <v>1E-4</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="21">
         <v>1</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="I42" s="36" t="s">
+      <c r="I42" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="34">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B43" s="30"/>
+      <c r="C43" s="31">
         <v>1E-4</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="21">
         <v>22</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="38">
+    <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="34"/>
+      <c r="C44" s="35">
         <v>1E-4</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="36">
         <v>30</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G44" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="41" t="s">
+    <row r="45" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="43">
+      <c r="C45" s="39"/>
+      <c r="D45" s="40">
         <v>4.7253768444061297</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="44" t="s">
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="41" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="33" t="s">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B46" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="31">
         <v>0.85189999999999999</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="21">
         <v>10</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="32" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B47" s="33"/>
-      <c r="C47" s="34">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B47" s="30"/>
+      <c r="C47" s="31">
         <v>0.11609999999999999</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="21">
         <v>20</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I47" s="36" t="s">
+      <c r="I47" s="33" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B48" s="30"/>
+      <c r="C48" s="31">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="21">
         <v>10</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="I48" s="33" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="31">
         <v>0.91690000000000005</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="21">
         <v>10</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H49" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I49" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
-      <c r="C50" s="34">
+      <c r="B50" s="30"/>
+      <c r="C50" s="31">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="21">
         <v>20</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="I50" s="36" t="s">
+      <c r="I50" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="33"/>
-      <c r="C51" s="34">
+      <c r="B51" s="30"/>
+      <c r="C51" s="31">
         <v>0.02</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="21">
         <v>1</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="I51" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
-      <c r="C52" s="34">
+      <c r="B52" s="30"/>
+      <c r="C52" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="21">
         <v>1</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H52" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="I52" s="36" t="s">
+      <c r="I52" s="33" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="33"/>
-      <c r="C53" s="34">
+      <c r="B53" s="30"/>
+      <c r="C53" s="31">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="21">
         <v>22</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="H53" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="I53" s="36" t="s">
+      <c r="I53" s="33" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="38">
+      <c r="B54" s="34"/>
+      <c r="C54" s="35">
         <v>1.5E-3</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="E54" s="39">
+      <c r="E54" s="36">
         <v>30</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F54" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G54" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H54" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="I54" s="40" t="s">
+      <c r="I54" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="55" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="42"/>
-      <c r="D55" s="43">
+      <c r="C55" s="39"/>
+      <c r="D55" s="40">
         <v>41.8465895652771</v>
       </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="44" t="s">
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="41" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C56" s="34">
+      <c r="C56" s="31">
         <v>0.98340000000000005</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="21">
         <v>10</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="I56" s="36" t="s">
+      <c r="I56" s="33" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="33"/>
-      <c r="C57" s="34">
+      <c r="B57" s="30"/>
+      <c r="C57" s="31">
         <v>1.29E-2</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="21">
         <v>20</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="G57" s="25" t="s">
+      <c r="G57" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H57" s="25" t="s">
+      <c r="H57" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="I57" s="36" t="s">
+      <c r="I57" s="33" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
-      <c r="C58" s="34">
+      <c r="B58" s="30"/>
+      <c r="C58" s="31">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="21">
         <v>10</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="H58" s="25" t="s">
+      <c r="H58" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="I58" s="36" t="s">
+      <c r="I58" s="33" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="34">
+      <c r="C59" s="31">
         <v>0.99150000000000005</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="21">
         <v>10</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G59" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="H59" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="I59" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="33"/>
-      <c r="C60" s="34">
+      <c r="B60" s="30"/>
+      <c r="C60" s="31">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="21">
         <v>20</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G60" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="H60" s="25" t="s">
+      <c r="H60" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I60" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="33"/>
-      <c r="C61" s="34">
+      <c r="B61" s="30"/>
+      <c r="C61" s="31">
         <v>1.9E-3</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="21">
         <v>1</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G61" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="H61" s="25" t="s">
+      <c r="H61" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I61" s="36" t="s">
+      <c r="I61" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="34">
+      <c r="B62" s="30"/>
+      <c r="C62" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="21">
         <v>1</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G62" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="I62" s="36" t="s">
+      <c r="I62" s="33" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="33"/>
-      <c r="C63" s="34">
+      <c r="B63" s="30"/>
+      <c r="C63" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E63" s="21">
         <v>22</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="H63" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="I63" s="36" t="s">
+      <c r="I63" s="33" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="37"/>
-      <c r="C64" s="38">
+      <c r="B64" s="34"/>
+      <c r="C64" s="35">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="E64" s="39">
+      <c r="E64" s="36">
         <v>30</v>
       </c>
-      <c r="F64" s="39" t="s">
+      <c r="F64" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="G64" s="39" t="s">
+      <c r="G64" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="H64" s="39" t="s">
+      <c r="H64" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="I64" s="40" t="s">
+      <c r="I64" s="37" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Q1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Summarized Trials.xlsx
+++ b/Summarized Trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e54ee0e16b764741/University/Fa2023/ECE 718 - Compiler Design for High Performance/Project/GemmCUDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="610" documentId="13_ncr:1_{3C733FE7-E8A4-42C6-AC06-D019A0768725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{319C647E-9792-4F19-A458-80425D19BCB8}"/>
+  <xr:revisionPtr revIDLastSave="682" documentId="13_ncr:1_{3C733FE7-E8A4-42C6-AC06-D019A0768725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{626E2DAE-62E7-4477-B5A4-EFBA8DCC24AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Trials" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alex Barsan</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{397A070B-EDF4-4CD4-BD33-A1753F505134}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alex Barsan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+note 4096 is estimated… group policy restart after ~22 hours so it's already pretty egregious. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alex Barsan</author>
@@ -73,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="437">
   <si>
     <t>Trial Name</t>
   </si>
@@ -1375,14 +1409,24 @@
   </si>
   <si>
     <t>Trial 36</t>
+  </si>
+  <si>
+    <t>Trial 37</t>
+  </si>
+  <si>
+    <t>Trial 38</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1800,7 +1844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1818,7 +1862,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1931,16 +1974,20 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2128,7 +2175,7 @@
             <c:numRef>
               <c:f>'Context and Graphs'!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.18351006507873541</c:v>
@@ -2233,7 +2280,7 @@
             <c:numRef>
               <c:f>'Context and Graphs'!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.3670196533203125</c:v>
@@ -2338,7 +2385,7 @@
             <c:numRef>
               <c:f>'Context and Graphs'!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.13962650299072271</c:v>
@@ -2443,7 +2490,7 @@
             <c:numRef>
               <c:f>'Context and Graphs'!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.27828621864318848</c:v>
@@ -2704,7 +2751,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3915,7 +3962,7 @@
             <c:numRef>
               <c:f>'Context and Graphs'!$M$2:$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.9919147491455078E-3</c:v>
@@ -4017,7 +4064,7 @@
             <c:numRef>
               <c:f>'Context and Graphs'!$N$2:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.15810346603393549</c:v>
@@ -4226,6 +4273,7 @@
       <c:valAx>
         <c:axId val="964389984"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4244,7 +4292,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4488,42 +4536,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$A$5:$A$8</c:f>
+              <c:f>'Context and Graphs'!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1024</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4096</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$M$5:$M$8</c:f>
+              <c:f>'Context and Graphs'!$M$7:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.9862861633300781E-3</c:v>
+                  <c:v>8.6768388748168945E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.39617919921875E-2</c:v>
+                  <c:v>4.482025146484375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6768388748168945E-2</c:v>
+                  <c:v>36.324334621429443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.482025146484375</c:v>
+                  <c:v>289.1930079460144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4575,42 +4623,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$A$5:$A$8</c:f>
+              <c:f>'Context and Graphs'!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1024</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4096</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$N$5:$N$8</c:f>
+              <c:f>'Context and Graphs'!$N$7:$N$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17852139472961431</c:v>
+                  <c:v>0.19248294830322271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18350934982299799</c:v>
+                  <c:v>0.80584812164306641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19248294830322271</c:v>
+                  <c:v>3.0099761486053471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80584812164306641</c:v>
+                  <c:v>14.67776441574097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4662,42 +4710,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$A$5:$A$8</c:f>
+              <c:f>'Context and Graphs'!$A$7:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1024</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4096</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$H$5:$H$8</c:f>
+              <c:f>'Context and Graphs'!$H$7:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.595759391784668E-2</c:v>
+                  <c:v>0.20322537422180181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9868106842041023E-2</c:v>
+                  <c:v>10.46019577980042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20322537422180181</c:v>
+                  <c:v>81.366543531417847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.46019577980042</c:v>
+                  <c:v>664.83272767066956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4724,6 +4772,8 @@
         <c:axId val="933281600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16834"/>
+          <c:min val="1024"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4781,11 +4831,13 @@
         <c:crossAx val="964389984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="256"/>
+        <c:majorUnit val="1024"/>
+        <c:minorUnit val="128"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="964389984"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4804,7 +4856,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4844,7 +4896,8 @@
         <c:crossAx val="933281600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5048,10 +5101,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$A$2:$A$19</c:f>
+              <c:f>'Context and Graphs'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -5078,10 +5131,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$E$2:$E$19</c:f>
+              <c:f>'Context and Graphs'!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.27828621864318848</c:v>
                 </c:pt>
@@ -5153,10 +5206,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$A$2:$A$19</c:f>
+              <c:f>'Context and Graphs'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -5183,10 +5236,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$F$2:$F$19</c:f>
+              <c:f>'Context and Graphs'!$F$2:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1037919521331787</c:v>
                 </c:pt>
@@ -5258,10 +5311,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$A$2:$A$19</c:f>
+              <c:f>'Context and Graphs'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -5288,10 +5341,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$G$2:$G$19</c:f>
+              <c:f>'Context and Graphs'!$G$2:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.16854977607727051</c:v>
                 </c:pt>
@@ -5369,10 +5422,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$A$2:$A$19</c:f>
+              <c:f>'Context and Graphs'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -5399,10 +5452,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Context and Graphs'!$H$2:$H$19</c:f>
+              <c:f>'Context and Graphs'!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.9782009124755859E-3</c:v>
                 </c:pt>
@@ -5640,7 +5693,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -16977,15 +17030,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2219325</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17013,15 +17066,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2247900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2324100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>2219325</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17050,16 +17103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17994,11 +18047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18203,12 +18256,12 @@
         <v>0.20322537422180181</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" s="8">
+        <v>79200</v>
       </c>
       <c r="C8">
         <v>4724.1884799003601</v>
@@ -18824,7 +18877,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>7.9782009124755859E-3</v>
       </c>
       <c r="I31">
         <v>2.9919147491455078E-3</v>
@@ -18856,7 +18909,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>6.9811344146728524E-3</v>
       </c>
       <c r="I32">
         <v>2.990961074829102E-3</v>
@@ -18888,7 +18941,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>7.9784393310546875E-3</v>
       </c>
       <c r="I33">
         <v>3.9889812469482422E-3</v>
@@ -18920,7 +18973,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1.595759391784668E-2</v>
       </c>
       <c r="I34">
         <v>4.9862861633300781E-3</v>
@@ -18952,7 +19005,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4.9868106842041023E-2</v>
       </c>
       <c r="I35">
         <v>1.39617919921875E-2</v>
@@ -18984,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.20322537422180181</v>
       </c>
       <c r="I36">
         <v>8.6768388748168945E-2</v>
@@ -19016,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>10.25245118141174</v>
       </c>
       <c r="I37">
         <v>4.482025146484375</v>
@@ -19025,8 +19078,73 @@
         <v>0.80584812164306641</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>80.530763149261475</v>
+      </c>
+      <c r="F38">
+        <v>81.702349424362183</v>
+      </c>
+      <c r="G38">
+        <v>86.798654079437256</v>
+      </c>
+      <c r="H38">
+        <v>81.366543531417847</v>
+      </c>
+      <c r="I38">
+        <v>36.324334621429443</v>
+      </c>
+      <c r="J38">
+        <v>3.0099761486053471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>435</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>663.6075005531311</v>
+      </c>
+      <c r="F39">
+        <v>666.01704597473145</v>
+      </c>
+      <c r="G39">
+        <v>683.79458785057068</v>
+      </c>
+      <c r="H39">
+        <v>664.83272767066956</v>
+      </c>
+      <c r="I39">
+        <v>289.1930079460144</v>
+      </c>
+      <c r="J39">
+        <v>14.67776441574097</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19034,8 +19152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC22C78A-4AFB-42A7-860C-985947D40450}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView topLeftCell="H24" workbookViewId="0">
-      <selection activeCell="T66" sqref="T66"/>
+    <sheetView topLeftCell="S51" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19047,7 +19165,8 @@
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -19065,7 +19184,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -19083,7 +19202,7 @@
       <c r="F1" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>408</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -19098,24 +19217,24 @@
       <c r="K1" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="55" t="s">
         <v>419</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="56" t="s">
         <v>420</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="68" t="s">
         <v>410</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="67"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="70"/>
       <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19130,61 +19249,61 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>32</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="59">
         <v>0.18351006507873541</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="63">
         <v>0.3670196533203125</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="63">
         <v>0.13962650299072271</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="63">
         <v>0.27828621864318848</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="63">
         <v>0.1037919521331787</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="63">
         <v>0.16854977607727051</v>
       </c>
       <c r="H2" s="7">
         <v>7.9782009124755859E-3</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <f>B2/E2</f>
         <v>0.65942922352912969</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <f>B2/H2</f>
         <v>23.001434420105795</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <f>B2/F2</f>
         <v>1.7680567838561116</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <f>B2/G2</f>
         <v>1.0887588779388615</v>
       </c>
-      <c r="M2" s="56">
+      <c r="M2" s="57">
         <v>2.9919147491455078E-3</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="58">
         <v>0.15810346603393549</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="65" t="s">
         <v>411</v>
       </c>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
       <c r="Y2" t="s">
         <v>15</v>
       </c>
@@ -19202,74 +19321,74 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>64</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="59">
         <v>1.27190637588501</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="63">
         <v>0.36806845664978027</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="63">
         <v>0.1385462284088135</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="63">
         <v>0.27078390121459961</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="63">
         <v>9.7769021987915039E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="63">
         <v>0.16512465476989749</v>
       </c>
       <c r="H3" s="7">
         <v>6.9811344146728524E-3</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <f t="shared" ref="I3:I8" si="0">B3/E3</f>
         <v>4.6971270085846362</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <f t="shared" ref="J3:J8" si="1">B3/H3</f>
         <v>182.19193333561014</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <f t="shared" ref="K3:K8" si="2">B3/F3</f>
         <v>13.009298344441113</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <f t="shared" ref="L3:L8" si="3">B3/G3</f>
         <v>7.7027042246200095</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="59">
         <v>2.990961074829102E-3</v>
       </c>
       <c r="N3" s="60">
         <v>0.18051719665527341</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="44">
         <v>32</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3" s="45">
         <v>64</v>
       </c>
-      <c r="S3" s="46">
+      <c r="S3" s="45">
         <v>128</v>
       </c>
-      <c r="T3" s="46">
+      <c r="T3" s="45">
         <v>256</v>
       </c>
-      <c r="U3" s="46">
+      <c r="U3" s="45">
         <v>512</v>
       </c>
-      <c r="V3" s="46">
+      <c r="V3" s="45">
         <v>1024</v>
       </c>
-      <c r="W3" s="47">
+      <c r="W3" s="46">
         <v>4096</v>
       </c>
       <c r="Y3" t="s">
@@ -19289,74 +19408,74 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>128</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="59">
         <v>10.34896802902222</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="63">
         <v>0.39191865921020508</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="63">
         <v>0.16159248352050781</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="63">
         <v>0.28726029396057129</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="63">
         <v>9.9733114242553711E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="63">
         <v>0.16655516624450681</v>
       </c>
       <c r="H4" s="7">
         <v>7.9784393310546875E-3</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <f t="shared" si="0"/>
         <v>36.026447951914641</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f t="shared" si="1"/>
         <v>1297.116841979441</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <f t="shared" si="2"/>
         <v>103.7666186162927</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <f t="shared" si="3"/>
         <v>62.135376898664902</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="59">
         <v>3.9889812469482422E-3</v>
       </c>
       <c r="N4" s="60">
         <v>0.16954708099365229</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="Q4" s="48">
+      <c r="Q4" s="47">
         <v>0.65942922352912969</v>
       </c>
-      <c r="R4" s="49">
+      <c r="R4" s="48">
         <v>4.6971270085846362</v>
       </c>
-      <c r="S4" s="49">
+      <c r="S4" s="48">
         <v>36.026447951914641</v>
       </c>
-      <c r="T4" s="49">
+      <c r="T4" s="48">
         <v>292.18407069256534</v>
       </c>
-      <c r="U4" s="49">
+      <c r="U4" s="48">
         <v>2020.5602365341686</v>
       </c>
-      <c r="V4" s="49">
+      <c r="V4" s="48">
         <v>4913.6869072018962</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="13">
         <v>7059.5759713484658</v>
       </c>
       <c r="Y4" t="s">
@@ -19376,47 +19495,47 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>256</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="59">
         <v>81.884746313095093</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="63">
         <v>0.5326075553894043</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="63">
         <v>0.15954279899597171</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="63">
         <v>0.28025054931640619</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="63">
         <v>0.1057174205780029</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="63">
         <v>0.18051719665527341</v>
       </c>
       <c r="H5" s="7">
         <v>1.595759391784668E-2</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f t="shared" si="0"/>
         <v>292.18407069256534</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <f t="shared" si="1"/>
         <v>5131.3967967010803</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <f t="shared" si="2"/>
         <v>774.56246913134783</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <f t="shared" si="3"/>
         <v>453.61188756696225</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="59">
         <v>4.9862861633300781E-3</v>
       </c>
       <c r="N5" s="60">
@@ -19425,25 +19544,25 @@
       <c r="P5" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="49">
         <v>1.7680567838561116</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="50">
         <v>13.009298344441113</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="50">
         <v>103.7666186162927</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="50">
         <v>774.56246913134783</v>
       </c>
-      <c r="U5" s="51">
+      <c r="U5" s="50">
         <v>4552.8687922157378</v>
       </c>
-      <c r="V5" s="51">
+      <c r="V5" s="50">
         <v>17401.275495098595</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="13">
         <v>7536.2075467550321</v>
       </c>
       <c r="Y5" t="s">
@@ -19463,47 +19582,47 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>512</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="59">
         <v>658.41065311431885</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="63">
         <v>2.4474935531616211</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="63">
         <v>0.35804367065429688</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="63">
         <v>0.32585549354553223</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="63">
         <v>0.14461445808410639</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="63">
         <v>0.21143388748168951</v>
       </c>
       <c r="H6" s="7">
         <v>4.9868106842041023E-2</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f t="shared" si="0"/>
         <v>2020.5602365341686</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f t="shared" si="1"/>
         <v>13203.040877406029</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f t="shared" si="2"/>
         <v>4552.8687922157378</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <f t="shared" si="3"/>
         <v>3114.0261429064353</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="59">
         <v>1.39617919921875E-2</v>
       </c>
       <c r="N6" s="60">
@@ -19512,25 +19631,25 @@
       <c r="P6" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="49">
         <v>1.0887588779388615</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="50">
         <v>7.7027042246200095</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="50">
         <v>62.135376898664902</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="50">
         <v>453.61188756696225</v>
       </c>
-      <c r="U6" s="51">
+      <c r="U6" s="50">
         <v>3114.0261429064353</v>
       </c>
-      <c r="V6" s="51">
+      <c r="V6" s="50">
         <v>14070.88570815296</v>
       </c>
-      <c r="W6" s="52">
+      <c r="W6" s="51">
         <v>6981.7071005182797</v>
       </c>
       <c r="Y6" t="s">
@@ -19550,74 +19669,74 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>1024</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="59">
         <v>5501.495353937149</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="63">
         <v>16.37320613861084</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="63">
         <v>1.764312267303467</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="63">
         <v>1.1196267604827881</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="63">
         <v>0.31615471839904791</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="63">
         <v>0.39098429679870611</v>
       </c>
       <c r="H7" s="7">
         <v>0.20322537422180181</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <f t="shared" si="0"/>
         <v>4913.6869072018962</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f t="shared" si="1"/>
         <v>27070.907729921426</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <f t="shared" si="2"/>
         <v>17401.275495098595</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <f t="shared" si="3"/>
         <v>14070.88570815296</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="59">
         <v>8.6768388748168945E-2</v>
       </c>
       <c r="N7" s="60">
         <v>0.19248294830322271</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="52">
         <v>23.001434420105795</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="53">
         <v>182.19193333561</v>
       </c>
-      <c r="S7" s="54">
+      <c r="S7" s="53">
         <v>1297.116841979441</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7" s="53">
         <v>5131.3967967010803</v>
       </c>
-      <c r="U7" s="54">
+      <c r="U7" s="53">
         <v>13203.040877406029</v>
       </c>
-      <c r="V7" s="54">
+      <c r="V7" s="53">
         <v>27070.907729921426</v>
       </c>
-      <c r="W7" s="55">
+      <c r="W7" s="54">
         <v>7571.5600039668789</v>
       </c>
       <c r="Y7" t="s">
@@ -19637,50 +19756,50 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>4096</v>
       </c>
       <c r="B8" s="8">
         <v>79200</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="64">
         <v>4724.1884799003601</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="64">
         <v>163.39830279350281</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="64">
         <v>11.21880412101746</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="64">
         <v>10.509264707565309</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="64">
         <v>11.34393048286438</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>10.46019577980042</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <f t="shared" si="0"/>
         <v>7059.5759713484658</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <f t="shared" si="1"/>
         <v>7571.5600039668789</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <f t="shared" si="2"/>
         <v>7536.2075467550321</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <f t="shared" si="3"/>
         <v>6981.7071005182797</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="61">
         <v>4.482025146484375</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="62">
         <v>0.80584812164306641</v>
       </c>
       <c r="Y8" t="s">
@@ -19700,24 +19819,83 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Y9" s="20" t="s">
+      <c r="A9" s="10">
+        <v>8192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="63">
+        <v>80.530763149261475</v>
+      </c>
+      <c r="F9" s="63">
+        <v>81.702349424362183</v>
+      </c>
+      <c r="G9" s="63">
+        <v>86.798654079437256</v>
+      </c>
+      <c r="H9">
+        <v>81.366543531417847</v>
+      </c>
+      <c r="M9" s="63">
+        <v>36.324334621429443</v>
+      </c>
+      <c r="N9" s="63">
+        <v>3.0099761486053471</v>
+      </c>
+      <c r="Y9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="20">
+      <c r="Z9" s="19">
         <v>7.8307175636291504</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="19">
         <v>7.6611173152923584</v>
       </c>
-      <c r="AB9" s="20">
+      <c r="AB9" s="19">
         <v>41.8465895652771</v>
       </c>
-      <c r="AC9" s="20">
+      <c r="AC9" s="19">
         <v>7.6051571369171143</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19">
+        <v>16384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="63">
+        <v>663.6075005531311</v>
+      </c>
+      <c r="F10" s="63">
+        <v>666.01704597473145</v>
+      </c>
+      <c r="G10" s="63">
+        <v>683.79458785057068</v>
+      </c>
+      <c r="H10">
+        <v>664.83272767066956</v>
+      </c>
+      <c r="M10" s="63">
+        <v>289.1930079460144</v>
+      </c>
+      <c r="N10" s="63">
+        <v>14.67776441574097</v>
+      </c>
       <c r="Y10" t="s">
         <v>23</v>
       </c>
@@ -19882,30 +20060,30 @@
       <c r="B19" s="2"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y21" s="22" t="s">
+      <c r="Y21" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="Z21" s="22" t="s">
+      <c r="Z21" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="AA21" s="42" t="s">
+      <c r="AA21" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AB21" s="42" t="s">
+      <c r="AB21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AC21" s="42" t="s">
+      <c r="AC21" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AD21" s="42" t="s">
+      <c r="AD21" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y22" s="21">
+      <c r="Y22" s="20">
         <v>4</v>
       </c>
-      <c r="Z22" s="21">
+      <c r="Z22" s="20">
         <v>4</v>
       </c>
       <c r="AA22">
@@ -19922,10 +20100,10 @@
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y23" s="21">
+      <c r="Y23" s="20">
         <v>4</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="Z23" s="20">
         <v>8</v>
       </c>
       <c r="AA23">
@@ -19942,10 +20120,10 @@
       </c>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y24" s="21">
+      <c r="Y24" s="20">
         <v>4</v>
       </c>
-      <c r="Z24" s="21">
+      <c r="Z24" s="20">
         <v>16</v>
       </c>
       <c r="AA24">
@@ -19962,10 +20140,10 @@
       </c>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y25" s="21">
+      <c r="Y25" s="20">
         <v>4</v>
       </c>
-      <c r="Z25" s="21">
+      <c r="Z25" s="20">
         <v>32</v>
       </c>
       <c r="AA25">
@@ -19982,10 +20160,10 @@
       </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y26" s="21">
+      <c r="Y26" s="20">
         <v>8</v>
       </c>
-      <c r="Z26" s="21">
+      <c r="Z26" s="20">
         <v>4</v>
       </c>
       <c r="AA26">
@@ -20002,10 +20180,10 @@
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y27" s="21">
+      <c r="Y27" s="20">
         <v>8</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z27" s="20">
         <v>8</v>
       </c>
       <c r="AA27">
@@ -20022,10 +20200,10 @@
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y28" s="21">
+      <c r="Y28" s="20">
         <v>8</v>
       </c>
-      <c r="Z28" s="21">
+      <c r="Z28" s="20">
         <v>16</v>
       </c>
       <c r="AA28">
@@ -20042,30 +20220,30 @@
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y29" s="21">
+      <c r="Y29" s="20">
         <v>8</v>
       </c>
-      <c r="Z29" s="21">
+      <c r="Z29" s="20">
         <v>32</v>
       </c>
-      <c r="AA29" s="20">
+      <c r="AA29" s="19">
         <v>7.8307175636291504</v>
       </c>
-      <c r="AB29" s="20">
+      <c r="AB29" s="19">
         <v>7.6611173152923584</v>
       </c>
-      <c r="AC29" s="20">
+      <c r="AC29" s="19">
         <v>41.8465895652771</v>
       </c>
-      <c r="AD29" s="20">
+      <c r="AD29" s="19">
         <v>7.6051571369171143</v>
       </c>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y30" s="21">
+      <c r="Y30" s="20">
         <v>16</v>
       </c>
-      <c r="Z30" s="21">
+      <c r="Z30" s="20">
         <v>4</v>
       </c>
       <c r="AA30">
@@ -20079,10 +20257,10 @@
       </c>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y31" s="21">
+      <c r="Y31" s="20">
         <v>16</v>
       </c>
-      <c r="Z31" s="21">
+      <c r="Z31" s="20">
         <v>8</v>
       </c>
       <c r="AA31">
@@ -20096,10 +20274,10 @@
       </c>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Y32" s="21">
+      <c r="Y32" s="20">
         <v>16</v>
       </c>
-      <c r="Z32" s="21">
+      <c r="Z32" s="20">
         <v>16</v>
       </c>
       <c r="AA32">
@@ -20119,10 +20297,10 @@
       <c r="A33" t="s">
         <v>399</v>
       </c>
-      <c r="Y33" s="21">
+      <c r="Y33" s="20">
         <v>16</v>
       </c>
-      <c r="Z33" s="21">
+      <c r="Z33" s="20">
         <v>32</v>
       </c>
       <c r="AA33">
@@ -20138,35 +20316,35 @@
         <v>10.497905492782589</v>
       </c>
     </row>
-    <row r="34" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+    <row r="34" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y34" s="20">
         <v>32</v>
       </c>
-      <c r="Z34" s="21">
+      <c r="Z34" s="20">
         <v>4</v>
       </c>
       <c r="AA34">
@@ -20180,25 +20358,25 @@
         <v>20.98466849327087</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="28" t="s">
+    <row r="35" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24">
+      <c r="C35" s="22"/>
+      <c r="D35" s="23">
         <v>137.53242468833901</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="29" t="s">
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="Y35" s="20">
         <v>32</v>
       </c>
-      <c r="Z35" s="21">
+      <c r="Z35" s="20">
         <v>8</v>
       </c>
       <c r="AA35">
@@ -20213,34 +20391,34 @@
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <v>0.99490000000000001</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>10</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y36" s="20">
         <v>32</v>
       </c>
-      <c r="Z36" s="21">
+      <c r="Z36" s="20">
         <v>16</v>
       </c>
       <c r="AA36">
@@ -20254,32 +20432,32 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
-      <c r="C37" s="31">
+      <c r="B37" s="29"/>
+      <c r="C37" s="30">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>20</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="I37" s="33" t="s">
+      <c r="I37" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="Y37" s="21">
+      <c r="Y37" s="20">
         <v>32</v>
       </c>
-      <c r="Z37" s="21">
+      <c r="Z37" s="20">
         <v>32</v>
       </c>
       <c r="AA37">
@@ -20296,644 +20474,644 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B38" s="30"/>
-      <c r="C38" s="31">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>10</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="32" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="30">
         <v>0.99729999999999996</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <v>10</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="I39" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
-      <c r="C40" s="31">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30">
         <v>1.8E-3</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>20</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="32" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
-      <c r="C41" s="31">
+      <c r="B41" s="29"/>
+      <c r="C41" s="30">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <v>1</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="31">
+      <c r="B42" s="29"/>
+      <c r="C42" s="30">
         <v>1E-4</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <v>1</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="I42" s="33" t="s">
+      <c r="I42" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="31">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30">
         <v>1E-4</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="20">
         <v>22</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="I43" s="33" t="s">
+      <c r="I43" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="34"/>
-      <c r="C44" s="35">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34">
         <v>1E-4</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="35">
         <v>30</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="H44" s="36" t="s">
+      <c r="H44" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="I44" s="37" t="s">
+      <c r="I44" s="36" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40">
+      <c r="C45" s="38"/>
+      <c r="D45" s="39">
         <v>4.7253768444061297</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="41" t="s">
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="40" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="30">
         <v>0.85189999999999999</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>10</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G46" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="31" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
-      <c r="C47" s="31">
+      <c r="B47" s="29"/>
+      <c r="C47" s="30">
         <v>0.11609999999999999</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>20</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="I47" s="33" t="s">
+      <c r="I47" s="32" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B48" s="30"/>
-      <c r="C48" s="31">
+      <c r="B48" s="29"/>
+      <c r="C48" s="30">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="20">
         <v>10</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="H48" s="21" t="s">
+      <c r="H48" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="I48" s="33" t="s">
+      <c r="I48" s="32" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="30">
         <v>0.91690000000000005</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="20">
         <v>10</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="H49" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="I49" s="33" t="s">
+      <c r="I49" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
-      <c r="C50" s="31">
+      <c r="B50" s="29"/>
+      <c r="C50" s="30">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="20">
         <v>20</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G50" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="32" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-      <c r="C51" s="31">
+      <c r="B51" s="29"/>
+      <c r="C51" s="30">
         <v>0.02</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="20">
         <v>1</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="H51" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="I51" s="33" t="s">
+      <c r="I51" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="31">
+      <c r="B52" s="29"/>
+      <c r="C52" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>1</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G52" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="I52" s="33" t="s">
+      <c r="I52" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="30"/>
-      <c r="C53" s="31">
+      <c r="B53" s="29"/>
+      <c r="C53" s="30">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <v>22</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="I53" s="33" t="s">
+      <c r="I53" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="35">
+      <c r="B54" s="33"/>
+      <c r="C54" s="34">
         <v>1.5E-3</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="35">
         <v>30</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H54" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="I54" s="37" t="s">
+      <c r="I54" s="36" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="55" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="40">
+      <c r="C55" s="38"/>
+      <c r="D55" s="39">
         <v>41.8465895652771</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="41" t="s">
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="40" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="30">
         <v>0.98340000000000005</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="20">
         <v>10</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="G56" s="21" t="s">
+      <c r="G56" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H56" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="I56" s="33" t="s">
+      <c r="I56" s="32" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="30"/>
-      <c r="C57" s="31">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30">
         <v>1.29E-2</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="20">
         <v>20</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="H57" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="I57" s="33" t="s">
+      <c r="I57" s="32" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="31">
+      <c r="B58" s="29"/>
+      <c r="C58" s="30">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <v>10</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="H58" s="21" t="s">
+      <c r="H58" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I58" s="33" t="s">
+      <c r="I58" s="32" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="31">
+      <c r="C59" s="30">
         <v>0.99150000000000005</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="20">
         <v>10</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="I59" s="33" t="s">
+      <c r="I59" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
-      <c r="C60" s="31">
+      <c r="B60" s="29"/>
+      <c r="C60" s="30">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="20">
         <v>20</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="G60" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I60" s="33" t="s">
+      <c r="I60" s="32" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="30"/>
-      <c r="C61" s="31">
+      <c r="B61" s="29"/>
+      <c r="C61" s="30">
         <v>1.9E-3</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="20">
         <v>1</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="G61" s="21" t="s">
+      <c r="G61" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="I61" s="33" t="s">
+      <c r="I61" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="31">
+      <c r="B62" s="29"/>
+      <c r="C62" s="30">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>1</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H62" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I62" s="33" t="s">
+      <c r="I62" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="30"/>
-      <c r="C63" s="31">
+      <c r="B63" s="29"/>
+      <c r="C63" s="30">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="20">
         <v>22</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G63" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H63" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="I63" s="33" t="s">
+      <c r="I63" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="34"/>
-      <c r="C64" s="35">
+      <c r="B64" s="33"/>
+      <c r="C64" s="34">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D64" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="35">
         <v>30</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="G64" s="36" t="s">
+      <c r="G64" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="H64" s="36" t="s">
+      <c r="H64" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="I64" s="37" t="s">
+      <c r="I64" s="36" t="s">
         <v>90</v>
       </c>
     </row>

--- a/Summarized Trials.xlsx
+++ b/Summarized Trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e54ee0e16b764741/University/Fa2023/ECE 718 - Compiler Design for High Performance/Project/GemmCUDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="682" documentId="13_ncr:1_{3C733FE7-E8A4-42C6-AC06-D019A0768725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{626E2DAE-62E7-4477-B5A4-EFBA8DCC24AE}"/>
+  <xr:revisionPtr revIDLastSave="696" documentId="13_ncr:1_{3C733FE7-E8A4-42C6-AC06-D019A0768725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C57D4296-893C-4E1D-9528-2A696B57576C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Trials" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="448">
   <si>
     <t>Trial Name</t>
   </si>
@@ -1418,6 +1418,39 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>JIT</t>
+  </si>
+  <si>
+    <t>Loop Reordered JIT</t>
+  </si>
+  <si>
+    <t>Basic CUDA Kernel</t>
+  </si>
+  <si>
+    <t>General Memory Coalescing</t>
+  </si>
+  <si>
+    <t>Shared Memory Caching</t>
+  </si>
+  <si>
+    <t>Vectorized Kernel</t>
+  </si>
+  <si>
+    <t>MKL</t>
+  </si>
+  <si>
+    <t>cuBLAS</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>GFLOPS/s</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2004,6 +2037,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -18050,8 +18086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18270,7 +18306,7 @@
         <v>163.39830279350281</v>
       </c>
       <c r="E8">
-        <v>11.21880412101746</v>
+        <v>11.2188041210175</v>
       </c>
       <c r="F8">
         <v>10.509264707565309</v>
@@ -18452,7 +18488,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.7481474876403809</v>
+        <v>7.74814748764038</v>
       </c>
       <c r="F15">
         <v>7.6283092498779297</v>
@@ -19150,10 +19186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC22C78A-4AFB-42A7-860C-985947D40450}">
-  <dimension ref="A1:AD64"/>
+  <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView topLeftCell="S51" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19181,9 +19217,11 @@
     <col min="27" max="28" width="36" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -19247,8 +19285,14 @@
       <c r="AC1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF1" s="71" t="s">
+        <v>446</v>
+      </c>
+      <c r="AG1" s="71" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>32</v>
       </c>
@@ -19319,8 +19363,14 @@
       <c r="AC2">
         <v>13.90225052833557</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG2">
+        <v>1.7353403216161601E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>64</v>
       </c>
@@ -19406,8 +19456,14 @@
       <c r="AC3">
         <v>13.905861854553221</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF3" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG3">
+        <v>2.90926058637903E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>128</v>
       </c>
@@ -19493,8 +19549,14 @@
       <c r="AC4">
         <v>13.895543098449711</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF4" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG4">
+        <v>0.84112840294118996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>256</v>
       </c>
@@ -19580,8 +19642,14 @@
       <c r="AC5">
         <v>13.904776096343991</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF5" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG5">
+        <v>17.738298566365501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>512</v>
       </c>
@@ -19667,8 +19735,14 @@
       <c r="AC6">
         <v>7.5108833312988281</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AG6">
+        <v>18.0753100449196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>1024</v>
       </c>
@@ -19754,8 +19828,14 @@
       <c r="AC7">
         <v>7.5578842163085938</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF7" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG7">
+        <v>29.0852894906571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>4096</v>
       </c>
@@ -19817,8 +19897,14 @@
       <c r="AC8">
         <v>7.5695807933807373</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF8" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG8">
+        <v>18.298640440768601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8192</v>
       </c>
@@ -19864,8 +19950,14 @@
       <c r="AC9" s="19">
         <v>7.6051571369171143</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF9" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG9">
+        <v>30.6644762088862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>16384</v>
       </c>
@@ -19911,8 +20003,14 @@
       <c r="AC10">
         <v>10.54792332649231</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF10" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG10">
+        <v>170.55193128920101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Y11" t="s">
         <v>24</v>
       </c>
@@ -19929,7 +20027,7 @@
         <v>10.497905492782589</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Y12" t="s">
         <v>25</v>
       </c>
@@ -19946,7 +20044,7 @@
         <v>21.146031141281131</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -19966,7 +20064,7 @@
         <v>10.286246299743651</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -19987,7 +20085,7 @@
         <v>10.29764723777771</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -20008,7 +20106,7 @@
         <v>20.98466849327087</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>

--- a/Summarized Trials.xlsx
+++ b/Summarized Trials.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e54ee0e16b764741/University/Fa2023/ECE 718 - Compiler Design for High Performance/Project/GemmCUDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="696" documentId="13_ncr:1_{3C733FE7-E8A4-42C6-AC06-D019A0768725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C57D4296-893C-4E1D-9528-2A696B57576C}"/>
+  <xr:revisionPtr revIDLastSave="720" documentId="13_ncr:1_{3C733FE7-E8A4-42C6-AC06-D019A0768725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AEA7CA3-B7E8-4F39-8367-7D3945504BC9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Trials" sheetId="1" r:id="rId1"/>
     <sheet name="Context and Graphs" sheetId="2" r:id="rId2"/>
-    <sheet name="Trial 24 profiling" sheetId="3" r:id="rId3"/>
-    <sheet name="Trial 25 profiling" sheetId="4" r:id="rId4"/>
-    <sheet name="Trial 26 profiling" sheetId="6" r:id="rId5"/>
-    <sheet name="Trial 27 profiling" sheetId="5" r:id="rId6"/>
-    <sheet name="Trial 28 profiling" sheetId="7" r:id="rId7"/>
+    <sheet name="Trials Desc" sheetId="8" r:id="rId3"/>
+    <sheet name="Trial 24 profiling" sheetId="3" r:id="rId4"/>
+    <sheet name="Trial 25 profiling" sheetId="4" r:id="rId5"/>
+    <sheet name="Trial 26 profiling" sheetId="6" r:id="rId6"/>
+    <sheet name="Trial 27 profiling" sheetId="5" r:id="rId7"/>
+    <sheet name="Trial 28 profiling" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="465">
   <si>
     <t>Trial Name</t>
   </si>
@@ -1451,6 +1452,57 @@
   </si>
   <si>
     <t>GFLOPS/s</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>C (Boehm)</t>
+  </si>
+  <si>
+    <t>Trial #</t>
+  </si>
+  <si>
+    <t>Matrix Size</t>
+  </si>
+  <si>
+    <t>TILE_DIM</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>numba.cuda.cudadrv.driver.CudaAPIError: [700] Call to cuMemcpyDtoH results in UNKNOWN_CUDA_ERROR for shared memory access kernel</t>
+  </si>
+  <si>
+    <t>Works for vectorized kernel</t>
+  </si>
+  <si>
+    <t>Same as Trial 11, SM kernel profiled</t>
+  </si>
+  <si>
+    <t>Same as Trial 12, SM kernel profiled</t>
+  </si>
+  <si>
+    <t>Same as Trial 15, SM kernel profiled</t>
+  </si>
+  <si>
+    <t>Same as Trial 12, Vec kernel profiled</t>
+  </si>
+  <si>
+    <t>Same as Trial 18, Vec kernel profiled</t>
+  </si>
+  <si>
+    <t>Re-run for MKL and cuBLAS implementations</t>
+  </si>
+  <si>
+    <t>Re-run for MKL and cuBLAS implementations compare with CUDA kernels for curiosity's sake</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2039,9 +2091,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17102,15 +17161,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2143125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2219325</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17795,10 +17854,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19186,10 +19241,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC22C78A-4AFB-42A7-860C-985947D40450}">
-  <dimension ref="A1:AG64"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19221,7 +19276,7 @@
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -19285,14 +19340,14 @@
       <c r="AC1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="AG1" s="71" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>32</v>
       </c>
@@ -19363,14 +19418,17 @@
       <c r="AC2">
         <v>13.90225052833557</v>
       </c>
-      <c r="AF2" t="s">
-        <v>437</v>
-      </c>
-      <c r="AG2">
-        <v>1.7353403216161601E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF2" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="AG2" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="AH2" s="41" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>64</v>
       </c>
@@ -19457,13 +19515,16 @@
         <v>13.905861854553221</v>
       </c>
       <c r="AF3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG3">
-        <v>2.90926058637903E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <v>1.7353403216161601E-3</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>128</v>
       </c>
@@ -19550,13 +19611,16 @@
         <v>13.895543098449711</v>
       </c>
       <c r="AF4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG4">
-        <v>0.84112840294118996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <v>2.90926058637903E-2</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>256</v>
       </c>
@@ -19643,13 +19707,16 @@
         <v>13.904776096343991</v>
       </c>
       <c r="AF5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG5">
-        <v>17.738298566365501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0.84112840294118996</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>512</v>
       </c>
@@ -19736,13 +19803,16 @@
         <v>7.5108833312988281</v>
       </c>
       <c r="AF6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG6">
-        <v>18.0753100449196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17.738298566365501</v>
+      </c>
+      <c r="AH6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>1024</v>
       </c>
@@ -19829,13 +19899,16 @@
         <v>7.5578842163085938</v>
       </c>
       <c r="AF7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG7">
-        <v>29.0852894906571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18.0753100449196</v>
+      </c>
+      <c r="AH7">
+        <v>1986.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>4096</v>
       </c>
@@ -19898,13 +19971,16 @@
         <v>7.5695807933807373</v>
       </c>
       <c r="AF8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG8">
-        <v>18.298640440768601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+        <v>29.0852894906571</v>
+      </c>
+      <c r="AH8">
+        <v>2980.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8192</v>
       </c>
@@ -19951,13 +20027,16 @@
         <v>7.6051571369171143</v>
       </c>
       <c r="AF9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG9">
-        <v>30.6644762088862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+        <v>18.298640440768601</v>
+      </c>
+      <c r="AH9">
+        <v>18237.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>16384</v>
       </c>
@@ -20004,13 +20083,16 @@
         <v>10.54792332649231</v>
       </c>
       <c r="AF10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG10">
-        <v>170.55193128920101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+        <v>30.6644762088862</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y11" t="s">
         <v>24</v>
       </c>
@@ -20026,8 +20108,17 @@
       <c r="AC11">
         <v>10.497905492782589</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG11">
+        <v>170.55193128920101</v>
+      </c>
+      <c r="AH11">
+        <v>23249.599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Y12" t="s">
         <v>25</v>
       </c>
@@ -20044,7 +20135,7 @@
         <v>21.146031141281131</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -20064,7 +20155,7 @@
         <v>10.286246299743651</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -20085,7 +20176,7 @@
         <v>10.29764723777771</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -20106,7 +20197,7 @@
         <v>20.98466849327087</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -20757,7 +20848,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
         <v>233</v>
       </c>
@@ -21226,6 +21317,755 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1677DFF-6734-4837-B5F7-44C906E6ED0C}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="57.85546875" style="74" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>16</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>256</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>512</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>32</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>32</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>16</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>32</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C21" s="2">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C22" s="2">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C23" s="2">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2">
+        <v>16</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C24" s="2">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2">
+        <v>32</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C25" s="2">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C27" s="2">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C28" s="2">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C29" s="2">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2">
+        <v>16</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>32</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>32</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2">
+        <v>16</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2">
+        <v>64</v>
+      </c>
+      <c r="C36" s="2">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <v>16</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2">
+        <v>128</v>
+      </c>
+      <c r="C37" s="2">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2">
+        <v>16</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2">
+        <v>256</v>
+      </c>
+      <c r="C38" s="2">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2">
+        <v>16</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2">
+        <v>512</v>
+      </c>
+      <c r="C39" s="2">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2">
+        <v>16</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C40" s="2">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2">
+        <v>16</v>
+      </c>
+      <c r="E40" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C41" s="2">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2">
+        <v>16</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2">
+        <v>8192</v>
+      </c>
+      <c r="C42" s="2">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2">
+        <v>16</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2">
+        <v>16384</v>
+      </c>
+      <c r="C43" s="2">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2">
+        <v>16</v>
+      </c>
+      <c r="E43" s="73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E792B270-628C-4C5A-98ED-E54E52F50D15}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -21923,7 +22763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9FEAAE-796E-4BB7-93D4-9B8A8872AF3E}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -22618,7 +23458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B6343C-3FF5-42EB-B10B-FD4A16692DF7}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -23315,7 +24155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFB017B-43D6-47D7-9217-AA6ACC8F4FD6}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -24130,7 +24970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82141C89-A3E5-4070-B989-19AC98B4C496}">
   <dimension ref="A1:I33"/>
   <sheetViews>
